--- a/aichan/547584128099390680_2021-07-15_15-06-05.xlsx
+++ b/aichan/547584128099390680_2021-07-15_15-06-05.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14622,7 +14622,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16900,7 +16900,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16972,7 +16972,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17109,11 +17109,11 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17907,7 +17907,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19198,7 +19198,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19265,7 +19265,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20003,7 +20003,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -22170,7 +22170,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22543,7 +22543,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23040,7 +23040,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23107,7 +23107,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -24077,7 +24077,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24933,7 +24933,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25582,7 +25582,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26099,7 +26099,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26166,7 +26166,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -27137,7 +27137,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -31438,7 +31438,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -32649,7 +32649,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -33517,7 +33517,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -34123,7 +34123,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34552,7 +34552,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -35262,7 +35262,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35550,7 +35550,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35772,7 +35772,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -36767,7 +36767,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -37176,7 +37176,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37243,7 +37243,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37464,7 +37464,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -38056,7 +38056,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38502,7 +38502,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -39241,7 +39241,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -39829,7 +39829,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -39900,7 +39900,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -39967,7 +39967,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -40046,7 +40046,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40322,7 +40322,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -40385,7 +40385,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40745,7 +40745,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -41116,7 +41116,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41333,7 +41333,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -41404,7 +41404,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41895,7 +41895,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -42212,7 +42212,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -42430,7 +42430,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -43019,7 +43019,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -43166,7 +43166,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43470,7 +43470,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -43612,7 +43612,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -43963,7 +43963,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44042,7 +44042,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44194,7 +44194,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -44269,7 +44269,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -44849,7 +44849,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -45003,7 +45003,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -45224,7 +45224,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -45867,7 +45867,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -46155,7 +46155,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -46309,7 +46309,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -46688,7 +46688,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46826,7 +46826,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47114,7 +47114,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -47185,7 +47185,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -47478,7 +47478,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47549,7 +47549,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -48141,7 +48141,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -48701,7 +48701,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -48843,7 +48843,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -48922,7 +48922,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -48989,7 +48989,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -49131,7 +49131,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49202,7 +49202,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -49344,7 +49344,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49486,7 +49486,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -49632,7 +49632,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -50652,7 +50652,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -50944,7 +50944,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -51378,7 +51378,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -51524,7 +51524,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -51683,7 +51683,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -51892,7 +51892,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -51959,7 +51959,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -52323,7 +52323,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52398,7 +52398,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -52465,11 +52465,11 @@
         </is>
       </c>
       <c r="I718" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -52548,7 +52548,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -53203,7 +53203,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -53432,7 +53432,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -53573,7 +53573,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -53928,7 +53928,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -54232,7 +54232,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -54666,7 +54666,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54891,7 +54891,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -55183,7 +55183,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -55254,7 +55254,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -55321,7 +55321,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -55523,7 +55523,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -55598,7 +55598,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -55811,7 +55811,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -55882,7 +55882,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -56024,7 +56024,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -56438,7 +56438,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56730,7 +56730,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -56876,7 +56876,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -57188,7 +57188,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -57464,7 +57464,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -57738,7 +57738,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -57876,7 +57876,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -58033,11 +58033,11 @@
         </is>
       </c>
       <c r="I795" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -58467,7 +58467,7 @@
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -58684,7 +58684,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -58964,7 +58964,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -59540,7 +59540,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -59619,7 +59619,7 @@
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
@@ -60850,7 +60850,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -61797,7 +61797,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -62247,7 +62247,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62527,7 +62527,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
@@ -63166,7 +63166,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
@@ -63387,7 +63387,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -63454,7 +63454,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -63757,7 +63757,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -63828,7 +63828,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -64283,7 +64283,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -64587,7 +64587,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -64741,7 +64741,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -64812,7 +64812,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -65029,7 +65029,7 @@
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -65471,7 +65471,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65550,7 +65550,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -65688,7 +65688,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -65763,7 +65763,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -65980,7 +65980,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -66193,7 +66193,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -66256,7 +66256,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -66327,7 +66327,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -66398,7 +66398,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -66757,7 +66757,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -66828,7 +66828,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -66970,7 +66970,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -67049,7 +67049,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -67270,7 +67270,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -67499,7 +67499,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -67566,7 +67566,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -67633,7 +67633,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -67708,7 +67708,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -67783,7 +67783,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -68439,7 +68439,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -68585,7 +68585,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -68731,7 +68731,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
@@ -69187,7 +69187,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
@@ -69254,7 +69254,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -69392,7 +69392,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
@@ -69684,7 +69684,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -70126,7 +70126,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -70331,7 +70331,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -70410,7 +70410,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -70485,7 +70485,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -70639,7 +70639,7 @@
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K968" t="inlineStr">
@@ -70714,7 +70714,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -70860,7 +70860,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K971" t="inlineStr">
@@ -70931,7 +70931,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -71077,7 +71077,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -71227,7 +71227,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K976" t="inlineStr">
@@ -71381,7 +71381,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K978" t="inlineStr">
@@ -71456,7 +71456,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K979" t="inlineStr">
@@ -71527,7 +71527,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
@@ -71740,7 +71740,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
@@ -71965,7 +71965,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -72260,7 +72260,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -72481,7 +72481,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -72698,7 +72698,7 @@
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -72929,7 +72929,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K999" t="inlineStr">
@@ -73004,7 +73004,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -73071,7 +73071,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
@@ -73150,7 +73150,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1002" t="inlineStr">
@@ -73462,7 +73462,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1006" t="inlineStr">
@@ -73529,7 +73529,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -73750,7 +73750,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -74188,7 +74188,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -74267,7 +74267,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -74342,7 +74342,7 @@
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -74416,7 +74416,7 @@
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -74634,7 +74634,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -74709,7 +74709,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -74868,7 +74868,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -75161,7 +75161,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -75542,7 +75542,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -75609,7 +75609,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -75684,7 +75684,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -75751,7 +75751,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -75823,7 +75823,7 @@
       </c>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -76115,7 +76115,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1042" t="inlineStr">
@@ -76354,7 +76354,7 @@
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -76789,7 +76789,7 @@
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1051" t="inlineStr">
@@ -77152,7 +77152,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -77444,7 +77444,7 @@
       </c>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1060" t="inlineStr">
@@ -77523,7 +77523,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -77602,7 +77602,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -77811,7 +77811,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -77958,7 +77958,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -78262,7 +78262,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -78333,7 +78333,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">
@@ -78625,7 +78625,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1076" t="inlineStr">
@@ -78917,7 +78917,7 @@
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1080" t="inlineStr">
@@ -79272,7 +79272,7 @@
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1085" t="inlineStr">
@@ -79549,7 +79549,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1089" t="inlineStr">
@@ -79833,7 +79833,7 @@
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1093" t="inlineStr">
@@ -80184,7 +80184,7 @@
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1098" t="inlineStr">
@@ -80344,7 +80344,7 @@
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1100" t="inlineStr">
@@ -80561,7 +80561,7 @@
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1103" t="inlineStr">
@@ -80847,7 +80847,7 @@
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1107" t="inlineStr">
@@ -80982,7 +80982,7 @@
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1109" t="inlineStr">
@@ -81366,7 +81366,7 @@
       </c>
       <c r="J1114" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1114" t="inlineStr">
@@ -81445,7 +81445,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1115" t="inlineStr">
@@ -81523,7 +81523,7 @@
       </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1116" t="inlineStr">
@@ -81661,7 +81661,7 @@
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1118" t="inlineStr">
@@ -81819,7 +81819,7 @@
       </c>
       <c r="J1120" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1120" t="inlineStr">
@@ -81890,7 +81890,7 @@
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1121" t="inlineStr">
@@ -81965,7 +81965,7 @@
       </c>
       <c r="J1122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1122" t="inlineStr">
@@ -82382,7 +82382,7 @@
       </c>
       <c r="J1127" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1127" t="inlineStr">
@@ -82461,7 +82461,7 @@
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1128" t="inlineStr">
@@ -82607,7 +82607,7 @@
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1130" t="inlineStr">
@@ -82686,7 +82686,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -82836,7 +82836,7 @@
       </c>
       <c r="J1133" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1133" t="inlineStr">
@@ -82915,7 +82915,7 @@
       </c>
       <c r="J1134" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1134" t="inlineStr">
@@ -83073,7 +83073,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1136" t="inlineStr">
@@ -83148,7 +83148,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1137" t="inlineStr">
@@ -83298,7 +83298,7 @@
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1139" t="inlineStr">
@@ -83378,7 +83378,7 @@
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1140" t="inlineStr">
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="I1143" t="n">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="J1143" t="inlineStr">
         <is>
@@ -83686,7 +83686,7 @@
       </c>
       <c r="J1144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1144" t="inlineStr">
@@ -83757,7 +83757,7 @@
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1145" t="inlineStr">
@@ -83887,7 +83887,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
@@ -83954,7 +83954,7 @@
       </c>
       <c r="J1148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1148" t="inlineStr">
@@ -84093,7 +84093,7 @@
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1150" t="inlineStr">
@@ -84306,7 +84306,7 @@
       </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1153" t="inlineStr">
@@ -84588,7 +84588,7 @@
       </c>
       <c r="J1157" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1157" t="inlineStr">
@@ -85398,7 +85398,7 @@
       </c>
       <c r="J1168" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1168" t="inlineStr">
@@ -85844,7 +85844,7 @@
       </c>
       <c r="J1174" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1174" t="inlineStr">
@@ -86199,7 +86199,7 @@
       </c>
       <c r="J1179" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1179" t="inlineStr">
@@ -86345,7 +86345,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1181" t="inlineStr">
@@ -86700,7 +86700,7 @@
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1186" t="inlineStr">
@@ -86926,7 +86926,7 @@
       </c>
       <c r="J1189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1189" t="inlineStr">
@@ -87152,7 +87152,7 @@
       </c>
       <c r="J1192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1192" t="inlineStr">
@@ -87444,7 +87444,7 @@
       </c>
       <c r="J1196" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1196" t="inlineStr">
@@ -87586,7 +87586,7 @@
       </c>
       <c r="J1198" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1198" t="inlineStr">
@@ -87721,7 +87721,7 @@
       </c>
       <c r="J1200" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1200" t="inlineStr">
@@ -87946,7 +87946,7 @@
       </c>
       <c r="J1203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1203" t="inlineStr">
@@ -88405,7 +88405,7 @@
       </c>
       <c r="J1209" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1209" t="inlineStr">
@@ -88768,7 +88768,7 @@
       </c>
       <c r="J1214" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1214" t="inlineStr">
@@ -88985,7 +88985,7 @@
       </c>
       <c r="J1217" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1217" t="inlineStr">
@@ -89510,7 +89510,7 @@
       </c>
       <c r="J1224" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1224" t="inlineStr">
@@ -90032,7 +90032,7 @@
       </c>
       <c r="J1231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1231" t="inlineStr">
@@ -90474,7 +90474,7 @@
       </c>
       <c r="J1237" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1237" t="inlineStr">
@@ -90991,7 +90991,7 @@
       </c>
       <c r="J1244" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1244" t="inlineStr">
@@ -91071,7 +91071,7 @@
       </c>
       <c r="J1245" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1245" t="inlineStr">
@@ -91150,7 +91150,7 @@
       </c>
       <c r="J1246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1246" t="inlineStr">
@@ -91221,7 +91221,7 @@
       </c>
       <c r="J1247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1247" t="inlineStr">
@@ -91300,7 +91300,7 @@
       </c>
       <c r="J1248" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1248" t="inlineStr">
@@ -91446,7 +91446,7 @@
       </c>
       <c r="J1250" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1250" t="inlineStr">
@@ -91525,7 +91525,7 @@
       </c>
       <c r="J1251" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1251" t="inlineStr">
@@ -91604,7 +91604,7 @@
       </c>
       <c r="J1252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1252" t="inlineStr">
@@ -91675,7 +91675,7 @@
       </c>
       <c r="J1253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1253" t="inlineStr">
@@ -91809,7 +91809,7 @@
       </c>
       <c r="J1255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1255" t="inlineStr">
@@ -91880,7 +91880,7 @@
       </c>
       <c r="J1256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1256" t="inlineStr">
@@ -91951,7 +91951,7 @@
       </c>
       <c r="J1257" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1257" t="inlineStr">
@@ -92101,7 +92101,7 @@
       </c>
       <c r="J1259" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1259" t="inlineStr">
@@ -92176,7 +92176,7 @@
       </c>
       <c r="J1260" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1260" t="inlineStr">
@@ -92243,7 +92243,7 @@
       </c>
       <c r="J1261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1261" t="inlineStr">
@@ -92314,7 +92314,7 @@
       </c>
       <c r="J1262" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1262" t="inlineStr">
@@ -92381,7 +92381,7 @@
       </c>
       <c r="J1263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1263" t="inlineStr">
@@ -92531,7 +92531,7 @@
       </c>
       <c r="J1265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1265" t="inlineStr">
@@ -92827,7 +92827,7 @@
       </c>
       <c r="J1269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1269" t="inlineStr">
@@ -92906,7 +92906,7 @@
       </c>
       <c r="J1270" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1270" t="inlineStr">
@@ -92985,7 +92985,7 @@
       </c>
       <c r="J1271" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1271" t="inlineStr">
@@ -93219,7 +93219,7 @@
       </c>
       <c r="J1274" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1274" t="inlineStr">
@@ -93294,7 +93294,7 @@
       </c>
       <c r="J1275" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1275" t="inlineStr">
@@ -93369,7 +93369,7 @@
       </c>
       <c r="J1276" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1276" t="inlineStr">
@@ -93444,7 +93444,7 @@
       </c>
       <c r="J1277" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1277" t="inlineStr">
@@ -93511,7 +93511,7 @@
       </c>
       <c r="J1278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1278" t="inlineStr">
@@ -93665,7 +93665,7 @@
       </c>
       <c r="J1280" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1280" t="inlineStr">
@@ -93728,7 +93728,7 @@
       </c>
       <c r="J1281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1281" t="inlineStr">
@@ -93826,7 +93826,7 @@
       </c>
       <c r="J1282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1282" t="inlineStr">
@@ -93893,7 +93893,7 @@
       </c>
       <c r="J1283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1283" t="inlineStr">
@@ -93972,7 +93972,7 @@
       </c>
       <c r="J1284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1284" t="inlineStr">
@@ -94268,7 +94268,7 @@
       </c>
       <c r="J1288" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1288" t="inlineStr">
@@ -94406,7 +94406,7 @@
         </is>
       </c>
       <c r="I1290" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J1290" t="inlineStr">
         <is>
@@ -95224,7 +95224,7 @@
       </c>
       <c r="J1301" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1301" t="inlineStr">
@@ -95904,7 +95904,7 @@
       </c>
       <c r="J1310" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1310" t="inlineStr">
@@ -95979,7 +95979,7 @@
       </c>
       <c r="J1311" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1311" t="inlineStr">
@@ -96421,7 +96421,7 @@
       </c>
       <c r="J1317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1317" t="inlineStr">
@@ -96577,7 +96577,7 @@
       </c>
       <c r="J1319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1319" t="inlineStr">

--- a/aichan/547584128099390680_2021-07-15_15-06-05.xlsx
+++ b/aichan/547584128099390680_2021-07-15_15-06-05.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11265,11 +11265,11 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12910,7 +12910,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14132,7 +14132,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14547,7 +14547,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14626,7 +14626,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -15202,7 +15202,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15578,7 +15578,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15921,7 +15921,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16900,7 +16900,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16972,7 +16972,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17682,7 +17682,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18555,7 +18555,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18902,7 +18902,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19265,7 +19265,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19470,7 +19470,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19695,7 +19695,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20003,7 +20003,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20070,7 +20070,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20149,7 +20149,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20225,7 +20225,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20434,7 +20434,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20645,7 +20645,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20716,7 +20716,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20788,7 +20788,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21238,7 +21238,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21882,7 +21882,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -22032,7 +22032,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22689,7 +22689,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22969,7 +22969,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23040,7 +23040,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23107,7 +23107,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23170,7 +23170,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23383,7 +23383,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23517,7 +23517,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23801,7 +23801,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24639,7 +24639,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24720,7 +24720,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24870,7 +24870,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25285,7 +25285,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25582,7 +25582,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25661,7 +25661,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25878,7 +25878,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25949,7 +25949,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26099,7 +26099,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26620,7 +26620,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26699,7 +26699,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26770,7 +26770,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26841,7 +26841,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26920,7 +26920,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27058,7 +27058,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -27137,7 +27137,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27413,7 +27413,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27567,7 +27567,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27709,7 +27709,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27942,7 +27942,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28080,7 +28080,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28226,7 +28226,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28305,7 +28305,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28451,11 +28451,11 @@
         </is>
       </c>
       <c r="I387" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28598,7 +28598,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28807,7 +28807,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28882,7 +28882,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28961,7 +28961,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29396,7 +29396,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29617,7 +29617,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29701,7 +29701,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29990,7 +29990,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30136,7 +30136,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30207,7 +30207,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30487,7 +30487,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30558,7 +30558,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -30767,7 +30767,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -30921,7 +30921,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -30988,7 +30988,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31213,7 +31213,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31438,7 +31438,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31509,7 +31509,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31659,7 +31659,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -31801,7 +31801,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32156,7 +32156,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32582,7 +32582,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -33146,7 +33146,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33225,7 +33225,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -33304,7 +33304,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33375,7 +33375,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33450,7 +33450,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33596,7 +33596,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33667,7 +33667,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33900,7 +33900,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -34052,7 +34052,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -34123,7 +34123,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34485,7 +34485,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -34552,7 +34552,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -35116,7 +35116,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35262,7 +35262,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35483,7 +35483,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35981,7 +35981,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36119,7 +36119,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -36257,7 +36257,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -36332,7 +36332,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36704,7 +36704,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -37176,7 +37176,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37243,7 +37243,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37543,7 +37543,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -37685,7 +37685,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -37835,7 +37835,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37981,7 +37981,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38281,7 +38281,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38803,7 +38803,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -38882,7 +38882,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -39020,7 +39020,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39458,7 +39458,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -39533,7 +39533,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -39829,7 +39829,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -39967,7 +39967,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -40385,7 +40385,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40745,7 +40745,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -40816,7 +40816,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -41116,7 +41116,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41183,7 +41183,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -41333,7 +41333,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -41542,7 +41542,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41684,7 +41684,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -42054,7 +42054,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -42212,7 +42212,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -42279,7 +42279,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -42354,7 +42354,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42802,7 +42802,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -42869,7 +42869,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43019,7 +43019,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -43086,7 +43086,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -43312,7 +43312,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -43391,7 +43391,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43612,7 +43612,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -43817,7 +43817,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -43963,7 +43963,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44269,7 +44269,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -44344,7 +44344,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -44423,7 +44423,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -44715,7 +44715,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -44782,7 +44782,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -44849,7 +44849,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -44924,7 +44924,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -45074,7 +45074,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -45224,7 +45224,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -45642,7 +45642,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -45721,7 +45721,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -45800,7 +45800,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -45934,7 +45934,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -46013,7 +46013,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -46088,7 +46088,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -46234,7 +46234,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -46309,7 +46309,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -46380,7 +46380,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -46905,7 +46905,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -47185,7 +47185,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -47335,7 +47335,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -47478,7 +47478,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47549,7 +47549,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -47695,7 +47695,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -47837,7 +47837,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -48141,7 +48141,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -48630,7 +48630,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -48701,7 +48701,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -48922,7 +48922,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -49131,7 +49131,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49273,7 +49273,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -49344,7 +49344,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49486,7 +49486,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -49632,7 +49632,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -49916,7 +49916,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -50204,7 +50204,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50352,7 +50352,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -50794,7 +50794,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -50944,7 +50944,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -51086,7 +51086,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -51307,7 +51307,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -51378,7 +51378,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -51449,7 +51449,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -51524,7 +51524,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -51604,7 +51604,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -51683,7 +51683,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -51750,7 +51750,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -51892,7 +51892,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -51959,7 +51959,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -52026,7 +52026,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -52248,7 +52248,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -52323,7 +52323,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52398,7 +52398,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -52465,11 +52465,11 @@
         </is>
       </c>
       <c r="I718" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -52548,7 +52548,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -53128,7 +53128,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -53203,7 +53203,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -53282,7 +53282,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -53432,7 +53432,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -53573,7 +53573,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -53711,7 +53711,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -53782,7 +53782,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -53861,7 +53861,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -53928,7 +53928,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -54007,7 +54007,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -54082,7 +54082,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -54232,7 +54232,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -54457,7 +54457,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -54599,7 +54599,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -54666,7 +54666,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54891,7 +54891,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -55033,7 +55033,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -55104,7 +55104,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -55254,7 +55254,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -55321,7 +55321,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -55388,7 +55388,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55459,7 +55459,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -55523,7 +55523,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -55598,7 +55598,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -55665,7 +55665,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -55811,7 +55811,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -55953,7 +55953,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -56024,7 +56024,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -56095,7 +56095,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -56174,7 +56174,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -56241,7 +56241,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -56308,7 +56308,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -56375,7 +56375,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -56438,7 +56438,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -57034,7 +57034,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -57113,7 +57113,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K782" t="inlineStr">
@@ -57397,7 +57397,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K786" t="inlineStr">
@@ -57602,7 +57602,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K789" t="inlineStr">
@@ -57669,7 +57669,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -57738,7 +57738,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -57805,7 +57805,7 @@
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K792" t="inlineStr">
@@ -57951,7 +57951,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -58037,7 +58037,7 @@
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -58467,7 +58467,7 @@
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -58755,7 +58755,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -58826,7 +58826,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -58897,7 +58897,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K807" t="inlineStr">
@@ -58964,7 +58964,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -60274,7 +60274,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
@@ -60491,7 +60491,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -60562,7 +60562,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -60929,7 +60929,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -61079,7 +61079,7 @@
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K837" t="inlineStr">
@@ -61150,7 +61150,7 @@
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
@@ -61225,7 +61225,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -61300,7 +61300,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61580,7 +61580,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K844" t="inlineStr">
@@ -61655,7 +61655,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K845" t="inlineStr">
@@ -61876,7 +61876,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -61943,7 +61943,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -62089,7 +62089,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K851" t="inlineStr">
@@ -62168,7 +62168,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -62247,7 +62247,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62456,7 +62456,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -62606,7 +62606,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -62685,7 +62685,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
@@ -62756,7 +62756,7 @@
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
@@ -62823,7 +62823,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
@@ -62957,7 +62957,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -63028,7 +63028,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -63099,7 +63099,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
@@ -63387,7 +63387,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
@@ -63536,7 +63536,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
@@ -63607,7 +63607,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -63979,7 +63979,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -64054,7 +64054,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
@@ -64204,7 +64204,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -64508,7 +64508,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64666,7 +64666,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -64812,7 +64812,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -64887,7 +64887,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -65104,7 +65104,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -65246,7 +65246,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -65325,7 +65325,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65471,7 +65471,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65550,7 +65550,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -65688,7 +65688,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -65763,7 +65763,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -65838,7 +65838,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
@@ -65980,7 +65980,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -66055,7 +66055,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -66126,7 +66126,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -66193,7 +66193,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -66256,7 +66256,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -66327,7 +66327,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -66398,7 +66398,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -66757,7 +66757,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -66828,7 +66828,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -66970,7 +66970,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
@@ -67049,7 +67049,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -67199,7 +67199,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -67270,7 +67270,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -67349,7 +67349,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -67499,7 +67499,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -67566,7 +67566,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -67708,7 +67708,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -67783,7 +67783,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -67862,7 +67862,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
@@ -67933,7 +67933,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
@@ -68000,7 +68000,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -68067,7 +68067,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -68142,7 +68142,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K934" t="inlineStr">
@@ -68222,7 +68222,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -68285,7 +68285,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K936" t="inlineStr">
@@ -68364,7 +68364,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
@@ -68439,7 +68439,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -68510,7 +68510,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -68656,7 +68656,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
@@ -68731,7 +68731,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K942" t="inlineStr">
@@ -68802,7 +68802,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -68948,7 +68948,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -69032,7 +69032,7 @@
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K946" t="inlineStr">
@@ -69112,7 +69112,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69187,7 +69187,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K948" t="inlineStr">
@@ -69254,7 +69254,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -69321,7 +69321,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -69609,7 +69609,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -69684,7 +69684,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K955" t="inlineStr">
@@ -69759,7 +69759,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -69972,7 +69972,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -70051,7 +70051,7 @@
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -70197,7 +70197,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -70264,7 +70264,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -70714,7 +70714,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -70931,7 +70931,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -71002,7 +71002,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K973" t="inlineStr">
@@ -71077,7 +71077,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -71148,7 +71148,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K975" t="inlineStr">
@@ -71227,7 +71227,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K976" t="inlineStr">
@@ -71456,7 +71456,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K979" t="inlineStr">
@@ -71527,7 +71527,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
@@ -71590,7 +71590,7 @@
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K981" t="inlineStr">
@@ -71740,7 +71740,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
@@ -71965,7 +71965,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -72260,7 +72260,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -72339,7 +72339,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
@@ -72406,7 +72406,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -72481,7 +72481,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -72556,7 +72556,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -72635,7 +72635,7 @@
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
@@ -72698,7 +72698,7 @@
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -72779,7 +72779,7 @@
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K997" t="inlineStr">
@@ -72850,7 +72850,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K998" t="inlineStr">
@@ -73004,7 +73004,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -73229,7 +73229,7 @@
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1003" t="inlineStr">
@@ -73387,7 +73387,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -73596,7 +73596,7 @@
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -73675,7 +73675,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -73821,7 +73821,7 @@
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -73888,7 +73888,7 @@
       </c>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -74030,7 +74030,7 @@
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1014" t="inlineStr">
@@ -74188,7 +74188,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -74267,7 +74267,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -74342,7 +74342,7 @@
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -74563,7 +74563,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -74634,7 +74634,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -74709,7 +74709,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -74789,7 +74789,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -74868,7 +74868,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -74935,7 +74935,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -75002,7 +75002,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -75161,7 +75161,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -75241,7 +75241,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -75462,7 +75462,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -75609,7 +75609,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -75684,7 +75684,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -75751,7 +75751,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -75823,7 +75823,7 @@
       </c>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -75965,7 +75965,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1040" t="inlineStr">
@@ -76036,7 +76036,7 @@
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1041" t="inlineStr">
@@ -76115,7 +76115,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1042" t="inlineStr">
@@ -76354,7 +76354,7 @@
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -76488,7 +76488,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -76563,7 +76563,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1048" t="inlineStr">
@@ -76642,7 +76642,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1049" t="inlineStr">
@@ -76709,7 +76709,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -76789,7 +76789,7 @@
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1051" t="inlineStr">
@@ -76856,7 +76856,7 @@
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1052" t="inlineStr">
@@ -77081,7 +77081,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -77365,7 +77365,7 @@
       </c>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1059" t="inlineStr">
@@ -77523,7 +77523,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -78025,7 +78025,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -78100,7 +78100,7 @@
         </is>
       </c>
       <c r="I1069" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J1069" t="inlineStr">
         <is>
@@ -78262,7 +78262,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -78333,7 +78333,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">
@@ -78412,7 +78412,7 @@
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1073" t="inlineStr">
@@ -78479,7 +78479,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1074" t="inlineStr">
@@ -78625,7 +78625,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1076" t="inlineStr">
@@ -78700,7 +78700,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1077" t="inlineStr">
@@ -78767,7 +78767,7 @@
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1078" t="inlineStr">
@@ -78838,7 +78838,7 @@
       </c>
       <c r="J1079" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1079" t="inlineStr">
@@ -79122,7 +79122,7 @@
       </c>
       <c r="J1083" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1083" t="inlineStr">
@@ -79197,7 +79197,7 @@
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1084" t="inlineStr">
@@ -79343,7 +79343,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1086" t="inlineStr">
@@ -79407,7 +79407,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1087" t="inlineStr">
@@ -79628,7 +79628,7 @@
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1090" t="inlineStr">
@@ -80121,7 +80121,7 @@
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1097" t="inlineStr">
@@ -80344,7 +80344,7 @@
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1100" t="inlineStr">
@@ -80423,7 +80423,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1101" t="inlineStr">
@@ -80561,7 +80561,7 @@
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1103" t="inlineStr">
@@ -80843,11 +80843,11 @@
         </is>
       </c>
       <c r="I1107" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1107" t="inlineStr">
@@ -80915,7 +80915,7 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1108" t="inlineStr">
@@ -80982,7 +80982,7 @@
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1109" t="inlineStr">
@@ -81049,7 +81049,7 @@
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1110" t="inlineStr">
@@ -81287,7 +81287,7 @@
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1113" t="inlineStr">
@@ -81523,7 +81523,7 @@
       </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1116" t="inlineStr">
@@ -81594,7 +81594,7 @@
       </c>
       <c r="J1117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1117" t="inlineStr">
@@ -81661,7 +81661,7 @@
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1118" t="inlineStr">
@@ -81740,7 +81740,7 @@
       </c>
       <c r="J1119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1119" t="inlineStr">
@@ -82115,7 +82115,7 @@
       </c>
       <c r="J1124" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1124" t="inlineStr">
@@ -82307,7 +82307,7 @@
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1126" t="inlineStr">
@@ -82461,7 +82461,7 @@
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1128" t="inlineStr">
@@ -82532,7 +82532,7 @@
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1129" t="inlineStr">
@@ -82607,7 +82607,7 @@
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1130" t="inlineStr">
@@ -82686,7 +82686,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -82836,7 +82836,7 @@
       </c>
       <c r="J1133" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1133" t="inlineStr">
@@ -83073,7 +83073,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1136" t="inlineStr">
@@ -83223,7 +83223,7 @@
       </c>
       <c r="J1138" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1138" t="inlineStr">
@@ -83298,7 +83298,7 @@
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1139" t="inlineStr">
@@ -83457,7 +83457,7 @@
       </c>
       <c r="J1141" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1141" t="inlineStr">
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="I1143" t="n">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="J1143" t="inlineStr">
         <is>
@@ -83757,7 +83757,7 @@
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1145" t="inlineStr">
@@ -83820,7 +83820,7 @@
       </c>
       <c r="J1146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1146" t="inlineStr">
@@ -83887,7 +83887,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
@@ -83954,7 +83954,7 @@
       </c>
       <c r="J1148" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1148" t="inlineStr">
@@ -84026,7 +84026,7 @@
       </c>
       <c r="J1149" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1149" t="inlineStr">
@@ -84168,7 +84168,7 @@
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1151" t="inlineStr">
@@ -84231,7 +84231,7 @@
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1152" t="inlineStr">
@@ -84446,7 +84446,7 @@
       </c>
       <c r="J1155" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1155" t="inlineStr">
@@ -84521,7 +84521,7 @@
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1156" t="inlineStr">
@@ -84738,7 +84738,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1159" t="inlineStr">
@@ -84813,7 +84813,7 @@
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1160" t="inlineStr">
@@ -84884,7 +84884,7 @@
       </c>
       <c r="J1161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1161" t="inlineStr">
@@ -84955,7 +84955,7 @@
       </c>
       <c r="J1162" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1162" t="inlineStr">
@@ -85030,7 +85030,7 @@
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1163" t="inlineStr">
@@ -85105,7 +85105,7 @@
       </c>
       <c r="J1164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1164" t="inlineStr">
@@ -85176,7 +85176,7 @@
       </c>
       <c r="J1165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1165" t="inlineStr">
@@ -85326,7 +85326,7 @@
       </c>
       <c r="J1167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1167" t="inlineStr">
@@ -85477,7 +85477,7 @@
       </c>
       <c r="J1169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1169" t="inlineStr">
@@ -85544,7 +85544,7 @@
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1170" t="inlineStr">
@@ -85623,7 +85623,7 @@
       </c>
       <c r="J1171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1171" t="inlineStr">
@@ -85694,7 +85694,7 @@
       </c>
       <c r="J1172" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1172" t="inlineStr">
@@ -85773,7 +85773,7 @@
       </c>
       <c r="J1173" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1173" t="inlineStr">
@@ -86270,7 +86270,7 @@
       </c>
       <c r="J1180" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1180" t="inlineStr">
@@ -86345,7 +86345,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1181" t="inlineStr">
@@ -86416,7 +86416,7 @@
       </c>
       <c r="J1182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1182" t="inlineStr">
@@ -86483,7 +86483,7 @@
       </c>
       <c r="J1183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1183" t="inlineStr">
@@ -86550,7 +86550,7 @@
       </c>
       <c r="J1184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1184" t="inlineStr">
@@ -86629,7 +86629,7 @@
       </c>
       <c r="J1185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1185" t="inlineStr">
@@ -86700,7 +86700,7 @@
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1186" t="inlineStr">
@@ -87152,7 +87152,7 @@
       </c>
       <c r="J1192" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1192" t="inlineStr">
@@ -87377,7 +87377,7 @@
       </c>
       <c r="J1195" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1195" t="inlineStr">
@@ -87444,7 +87444,7 @@
       </c>
       <c r="J1196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1196" t="inlineStr">
@@ -87519,7 +87519,7 @@
       </c>
       <c r="J1197" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1197" t="inlineStr">
@@ -87654,7 +87654,7 @@
       </c>
       <c r="J1199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1199" t="inlineStr">
@@ -87796,7 +87796,7 @@
       </c>
       <c r="J1201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1201" t="inlineStr">
@@ -88247,7 +88247,7 @@
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1207" t="inlineStr">
@@ -88326,7 +88326,7 @@
       </c>
       <c r="J1208" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1208" t="inlineStr">
@@ -88476,7 +88476,7 @@
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1210" t="inlineStr">
@@ -88559,7 +88559,7 @@
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1211" t="inlineStr">
@@ -88630,7 +88630,7 @@
       </c>
       <c r="J1212" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1212" t="inlineStr">
@@ -88839,7 +88839,7 @@
       </c>
       <c r="J1215" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1215" t="inlineStr">
@@ -88914,7 +88914,7 @@
       </c>
       <c r="J1216" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1216" t="inlineStr">
@@ -88985,7 +88985,7 @@
       </c>
       <c r="J1217" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1217" t="inlineStr">
@@ -89056,7 +89056,7 @@
       </c>
       <c r="J1218" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1218" t="inlineStr">
@@ -89135,7 +89135,7 @@
       </c>
       <c r="J1219" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1219" t="inlineStr">
@@ -89202,7 +89202,7 @@
       </c>
       <c r="J1220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1220" t="inlineStr">
@@ -89356,7 +89356,7 @@
       </c>
       <c r="J1222" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1222" t="inlineStr">
@@ -89431,7 +89431,7 @@
       </c>
       <c r="J1223" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1223" t="inlineStr">
@@ -89510,7 +89510,7 @@
       </c>
       <c r="J1224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1224" t="inlineStr">
@@ -89582,7 +89582,7 @@
       </c>
       <c r="J1225" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1225" t="inlineStr">
@@ -89736,7 +89736,7 @@
       </c>
       <c r="J1227" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1227" t="inlineStr">
@@ -89803,7 +89803,7 @@
       </c>
       <c r="J1228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1228" t="inlineStr">
@@ -89953,7 +89953,7 @@
       </c>
       <c r="J1230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1230" t="inlineStr">
@@ -90253,7 +90253,7 @@
       </c>
       <c r="J1234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1234" t="inlineStr">
@@ -90545,7 +90545,7 @@
       </c>
       <c r="J1238" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1238" t="inlineStr">
@@ -90699,7 +90699,7 @@
       </c>
       <c r="J1240" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1240" t="inlineStr">
@@ -90774,7 +90774,7 @@
       </c>
       <c r="J1241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1241" t="inlineStr">
@@ -90924,7 +90924,7 @@
       </c>
       <c r="J1243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1243" t="inlineStr">
@@ -91525,7 +91525,7 @@
       </c>
       <c r="J1251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1251" t="inlineStr">
@@ -91675,7 +91675,7 @@
       </c>
       <c r="J1253" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1253" t="inlineStr">
@@ -91742,7 +91742,7 @@
       </c>
       <c r="J1254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1254" t="inlineStr">
@@ -91951,7 +91951,7 @@
       </c>
       <c r="J1257" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1257" t="inlineStr">
@@ -92381,7 +92381,7 @@
       </c>
       <c r="J1263" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1263" t="inlineStr">
@@ -92531,7 +92531,7 @@
       </c>
       <c r="J1265" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1265" t="inlineStr">
@@ -92681,7 +92681,7 @@
       </c>
       <c r="J1267" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1267" t="inlineStr">
@@ -92756,7 +92756,7 @@
       </c>
       <c r="J1268" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1268" t="inlineStr">
@@ -92827,7 +92827,7 @@
       </c>
       <c r="J1269" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1269" t="inlineStr">
@@ -92906,7 +92906,7 @@
       </c>
       <c r="J1270" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1270" t="inlineStr">
@@ -92985,7 +92985,7 @@
       </c>
       <c r="J1271" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1271" t="inlineStr">
@@ -93064,7 +93064,7 @@
       </c>
       <c r="J1272" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1272" t="inlineStr">
@@ -93219,7 +93219,7 @@
       </c>
       <c r="J1274" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1274" t="inlineStr">
@@ -93369,7 +93369,7 @@
       </c>
       <c r="J1276" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1276" t="inlineStr">
@@ -93444,7 +93444,7 @@
       </c>
       <c r="J1277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1277" t="inlineStr">
@@ -93511,7 +93511,7 @@
       </c>
       <c r="J1278" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1278" t="inlineStr">
@@ -93590,7 +93590,7 @@
       </c>
       <c r="J1279" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1279" t="inlineStr">
@@ -93665,7 +93665,7 @@
       </c>
       <c r="J1280" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1280" t="inlineStr">
@@ -93728,7 +93728,7 @@
       </c>
       <c r="J1281" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1281" t="inlineStr">
@@ -93826,7 +93826,7 @@
       </c>
       <c r="J1282" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1282" t="inlineStr">
@@ -93893,7 +93893,7 @@
       </c>
       <c r="J1283" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1283" t="inlineStr">
@@ -93972,7 +93972,7 @@
       </c>
       <c r="J1284" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1284" t="inlineStr">
@@ -94268,7 +94268,7 @@
       </c>
       <c r="J1288" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1288" t="inlineStr">
@@ -94339,7 +94339,7 @@
       </c>
       <c r="J1289" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1289" t="inlineStr">
@@ -94406,11 +94406,11 @@
         </is>
       </c>
       <c r="I1290" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J1290" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1290" t="inlineStr">
@@ -94489,7 +94489,7 @@
       </c>
       <c r="J1291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1291" t="inlineStr">
@@ -94556,7 +94556,7 @@
       </c>
       <c r="J1292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1292" t="inlineStr">
@@ -94635,7 +94635,7 @@
       </c>
       <c r="J1293" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1293" t="inlineStr">
@@ -94706,7 +94706,7 @@
       </c>
       <c r="J1294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1294" t="inlineStr">
@@ -94792,7 +94792,7 @@
       </c>
       <c r="J1295" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1295" t="inlineStr">
@@ -94859,7 +94859,7 @@
       </c>
       <c r="J1296" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1296" t="inlineStr">
@@ -94934,7 +94934,7 @@
       </c>
       <c r="J1297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1297" t="inlineStr">
@@ -95013,7 +95013,7 @@
       </c>
       <c r="J1298" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1298" t="inlineStr">
@@ -95080,7 +95080,7 @@
       </c>
       <c r="J1299" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1299" t="inlineStr">
@@ -95151,7 +95151,7 @@
       </c>
       <c r="J1300" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1300" t="inlineStr">
@@ -95220,7 +95220,7 @@
         </is>
       </c>
       <c r="I1301" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J1301" t="inlineStr">
         <is>
@@ -95303,7 +95303,7 @@
       </c>
       <c r="J1302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1302" t="inlineStr">
@@ -95383,7 +95383,7 @@
       </c>
       <c r="J1303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1303" t="inlineStr">
@@ -95537,7 +95537,7 @@
       </c>
       <c r="J1305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1305" t="inlineStr">
@@ -95750,11 +95750,11 @@
         </is>
       </c>
       <c r="I1308" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="J1308" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1308" t="inlineStr">
@@ -95904,7 +95904,7 @@
       </c>
       <c r="J1310" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1310" t="inlineStr">
@@ -95979,7 +95979,7 @@
       </c>
       <c r="J1311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1311" t="inlineStr">
@@ -96200,7 +96200,7 @@
       </c>
       <c r="J1314" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1314" t="inlineStr">
@@ -96577,7 +96577,7 @@
       </c>
       <c r="J1319" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1319" t="inlineStr">
